--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl2-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl2-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.81256866666667</v>
+        <v>9.380719000000001</v>
       </c>
       <c r="H2">
-        <v>35.437706</v>
+        <v>28.142157</v>
       </c>
       <c r="I2">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="J2">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.011782</v>
+        <v>0.377371</v>
       </c>
       <c r="N2">
-        <v>0.035346</v>
+        <v>1.132113</v>
       </c>
       <c r="O2">
-        <v>0.02071678214087482</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="P2">
-        <v>0.02071678214087482</v>
+        <v>0.4698794580655764</v>
       </c>
       <c r="Q2">
-        <v>0.1391756840306666</v>
+        <v>3.540011309749</v>
       </c>
       <c r="R2">
-        <v>1.252581156276</v>
+        <v>31.860101787741</v>
       </c>
       <c r="S2">
-        <v>0.0003250564734161727</v>
+        <v>0.01729145876076084</v>
       </c>
       <c r="T2">
-        <v>0.0003250564734161727</v>
+        <v>0.01729145876076083</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.81256866666667</v>
+        <v>9.380719000000001</v>
       </c>
       <c r="H3">
-        <v>35.437706</v>
+        <v>28.142157</v>
       </c>
       <c r="I3">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="J3">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>1.06804</v>
       </c>
       <c r="O3">
-        <v>0.6259930967504086</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="P3">
-        <v>0.6259930967504087</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="Q3">
-        <v>4.205431946248888</v>
+        <v>3.339661040253334</v>
       </c>
       <c r="R3">
-        <v>37.84888751623999</v>
+        <v>30.05694936228</v>
       </c>
       <c r="S3">
-        <v>0.009822138738963648</v>
+        <v>0.01631283238938428</v>
       </c>
       <c r="T3">
-        <v>0.00982213873896365</v>
+        <v>0.01631283238938428</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.81256866666667</v>
+        <v>9.380719000000001</v>
       </c>
       <c r="H4">
-        <v>35.437706</v>
+        <v>28.142157</v>
       </c>
       <c r="I4">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="J4">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,33 +682,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.07918166666666666</v>
+        <v>0.06973866666666667</v>
       </c>
       <c r="N4">
-        <v>0.237545</v>
+        <v>0.209216</v>
       </c>
       <c r="O4">
-        <v>0.139228427931141</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="P4">
-        <v>0.139228427931141</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="Q4">
-        <v>0.935338874641111</v>
+        <v>0.6541988354346667</v>
       </c>
       <c r="R4">
-        <v>8.41804987177</v>
+        <v>5.887789518912</v>
       </c>
       <c r="S4">
-        <v>0.002184562326080596</v>
+        <v>0.003195484758227615</v>
       </c>
       <c r="T4">
-        <v>0.002184562326080597</v>
+        <v>0.003195484758227615</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.81256866666667</v>
+        <v>90.439374</v>
       </c>
       <c r="H5">
-        <v>35.437706</v>
+        <v>271.318122</v>
       </c>
       <c r="I5">
-        <v>0.01569049050213386</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="J5">
-        <v>0.01569049050213386</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1217406666666667</v>
+        <v>0.377371</v>
       </c>
       <c r="N5">
-        <v>0.365222</v>
+        <v>1.132113</v>
       </c>
       <c r="O5">
-        <v>0.2140616931775755</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="P5">
-        <v>0.2140616931775755</v>
+        <v>0.4698794580655764</v>
       </c>
       <c r="Q5">
-        <v>1.438069984525778</v>
+        <v>34.12919700575399</v>
       </c>
       <c r="R5">
-        <v>12.942629860732</v>
+        <v>307.162773051786</v>
       </c>
       <c r="S5">
-        <v>0.003358732963673441</v>
+        <v>0.1667066997604369</v>
       </c>
       <c r="T5">
-        <v>0.003358732963673442</v>
+        <v>0.1667066997604368</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>271.318122</v>
       </c>
       <c r="I6">
-        <v>0.1201295144865696</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="J6">
-        <v>0.1201295144865697</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.011782</v>
+        <v>0.3560133333333333</v>
       </c>
       <c r="N6">
-        <v>0.035346</v>
+        <v>1.06804</v>
       </c>
       <c r="O6">
-        <v>0.02071678214087482</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="P6">
-        <v>0.02071678214087482</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="Q6">
-        <v>1.065556704468</v>
+        <v>32.19762300232</v>
       </c>
       <c r="R6">
-        <v>9.590010340211998</v>
+        <v>289.77860702088</v>
       </c>
       <c r="S6">
-        <v>0.002488696980307329</v>
+        <v>0.1572717772979703</v>
       </c>
       <c r="T6">
-        <v>0.00248869698030733</v>
+        <v>0.1572717772979703</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>271.318122</v>
       </c>
       <c r="I7">
-        <v>0.1201295144865696</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="J7">
-        <v>0.1201295144865697</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3560133333333333</v>
+        <v>0.06973866666666667</v>
       </c>
       <c r="N7">
-        <v>1.06804</v>
+        <v>0.209216</v>
       </c>
       <c r="O7">
-        <v>0.6259930967504086</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="P7">
-        <v>0.6259930967504087</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="Q7">
-        <v>32.19762300231999</v>
+        <v>6.307121356928</v>
       </c>
       <c r="R7">
-        <v>289.77860702088</v>
+        <v>56.764092212352</v>
       </c>
       <c r="S7">
-        <v>0.0752002467845708</v>
+        <v>0.03080762158643136</v>
       </c>
       <c r="T7">
-        <v>0.07520024678457082</v>
+        <v>0.03080762158643136</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>90.439374</v>
+        <v>100.179423</v>
       </c>
       <c r="H8">
-        <v>271.318122</v>
+        <v>300.538269</v>
       </c>
       <c r="I8">
-        <v>0.1201295144865696</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="J8">
-        <v>0.1201295144865697</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.07918166666666666</v>
+        <v>0.377371</v>
       </c>
       <c r="N8">
-        <v>0.237545</v>
+        <v>1.132113</v>
       </c>
       <c r="O8">
-        <v>0.139228427931141</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="P8">
-        <v>0.139228427931141</v>
+        <v>0.4698794580655764</v>
       </c>
       <c r="Q8">
-        <v>7.16114036561</v>
+        <v>37.80480903693299</v>
       </c>
       <c r="R8">
-        <v>64.45026329049</v>
+        <v>340.243281332397</v>
       </c>
       <c r="S8">
-        <v>0.01672544345009632</v>
+        <v>0.1846605107221861</v>
       </c>
       <c r="T8">
-        <v>0.01672544345009632</v>
+        <v>0.1846605107221861</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>90.439374</v>
+        <v>100.179423</v>
       </c>
       <c r="H9">
-        <v>271.318122</v>
+        <v>300.538269</v>
       </c>
       <c r="I9">
-        <v>0.1201295144865696</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="J9">
-        <v>0.1201295144865697</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1217406666666667</v>
+        <v>0.3560133333333333</v>
       </c>
       <c r="N9">
-        <v>0.365222</v>
+        <v>1.06804</v>
       </c>
       <c r="O9">
-        <v>0.2140616931775755</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="P9">
-        <v>0.2140616931775755</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="Q9">
-        <v>11.010149683676</v>
+        <v>35.66521031364</v>
       </c>
       <c r="R9">
-        <v>99.091347153084</v>
+        <v>320.9868928227601</v>
       </c>
       <c r="S9">
-        <v>0.02571512727159518</v>
+        <v>0.1742094754425784</v>
       </c>
       <c r="T9">
-        <v>0.02571512727159519</v>
+        <v>0.1742094754425784</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>381.646276</v>
+        <v>100.179423</v>
       </c>
       <c r="H10">
-        <v>1144.938828</v>
+        <v>300.538269</v>
       </c>
       <c r="I10">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="J10">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.011782</v>
+        <v>0.06973866666666667</v>
       </c>
       <c r="N10">
-        <v>0.035346</v>
+        <v>0.209216</v>
       </c>
       <c r="O10">
-        <v>0.02071678214087482</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="P10">
-        <v>0.02071678214087482</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="Q10">
-        <v>4.496556423832</v>
+        <v>6.986379387456</v>
       </c>
       <c r="R10">
-        <v>40.46900781448799</v>
+        <v>62.87741448710401</v>
       </c>
       <c r="S10">
-        <v>0.01050208435351109</v>
+        <v>0.03412550991928624</v>
       </c>
       <c r="T10">
-        <v>0.01050208435351109</v>
+        <v>0.03412550991928624</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>381.646276</v>
+        <v>1.427630666666667</v>
       </c>
       <c r="H11">
-        <v>1144.938828</v>
+        <v>4.282892</v>
       </c>
       <c r="I11">
-        <v>0.5069360811971936</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="J11">
-        <v>0.5069360811971936</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,33 +1116,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.3560133333333333</v>
+        <v>0.377371</v>
       </c>
       <c r="N11">
-        <v>1.06804</v>
+        <v>1.132113</v>
       </c>
       <c r="O11">
-        <v>0.6259930967504086</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="P11">
-        <v>0.6259930967504087</v>
+        <v>0.4698794580655764</v>
       </c>
       <c r="Q11">
-        <v>135.8711628730133</v>
+        <v>0.5387464123106667</v>
       </c>
       <c r="R11">
-        <v>1222.84046585712</v>
+        <v>4.848717710796</v>
       </c>
       <c r="S11">
-        <v>0.3173384873231478</v>
+        <v>0.002631548477069206</v>
       </c>
       <c r="T11">
-        <v>0.3173384873231478</v>
+        <v>0.002631548477069206</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>381.646276</v>
+        <v>1.427630666666667</v>
       </c>
       <c r="H12">
-        <v>1144.938828</v>
+        <v>4.282892</v>
       </c>
       <c r="I12">
-        <v>0.5069360811971936</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="J12">
-        <v>0.5069360811971936</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.07918166666666666</v>
+        <v>0.3560133333333333</v>
       </c>
       <c r="N12">
-        <v>0.237545</v>
+        <v>1.06804</v>
       </c>
       <c r="O12">
-        <v>0.139228427931141</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="P12">
-        <v>0.139228427931141</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="Q12">
-        <v>30.21938821080667</v>
+        <v>0.508255552408889</v>
       </c>
       <c r="R12">
-        <v>271.97449389726</v>
+        <v>4.574299971680001</v>
       </c>
       <c r="S12">
-        <v>0.0705799136466585</v>
+        <v>0.002482613516008556</v>
       </c>
       <c r="T12">
-        <v>0.07057991364665851</v>
+        <v>0.002482613516008556</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>381.646276</v>
+        <v>1.427630666666667</v>
       </c>
       <c r="H13">
-        <v>1144.938828</v>
+        <v>4.282892</v>
       </c>
       <c r="I13">
-        <v>0.5069360811971936</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="J13">
-        <v>0.5069360811971936</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1217406666666667</v>
+        <v>0.06973866666666667</v>
       </c>
       <c r="N13">
-        <v>0.365222</v>
+        <v>0.209216</v>
       </c>
       <c r="O13">
-        <v>0.2140616931775755</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="P13">
-        <v>0.2140616931775755</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="Q13">
-        <v>46.46187207109067</v>
+        <v>0.09956105918577779</v>
       </c>
       <c r="R13">
-        <v>418.156848639816</v>
+        <v>0.8960495326720002</v>
       </c>
       <c r="S13">
-        <v>0.1085155958738762</v>
+        <v>0.0004863136861589886</v>
       </c>
       <c r="T13">
-        <v>0.1085155958738762</v>
+        <v>0.0004863136861589886</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.809069</v>
+        <v>53.48524799999999</v>
       </c>
       <c r="H14">
-        <v>8.427206999999999</v>
+        <v>160.455744</v>
       </c>
       <c r="I14">
-        <v>0.003731252000144026</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="J14">
-        <v>0.003731252000144027</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,33 +1302,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.011782</v>
+        <v>0.377371</v>
       </c>
       <c r="N14">
-        <v>0.035346</v>
+        <v>1.132113</v>
       </c>
       <c r="O14">
-        <v>0.02071678214087482</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="P14">
-        <v>0.02071678214087482</v>
+        <v>0.4698794580655764</v>
       </c>
       <c r="Q14">
-        <v>0.03309645095799999</v>
+        <v>20.18378152300799</v>
       </c>
       <c r="R14">
-        <v>0.2978680586219999</v>
+        <v>181.654033707072</v>
       </c>
       <c r="S14">
-        <v>7.729953479968721E-05</v>
+        <v>0.09858924034512341</v>
       </c>
       <c r="T14">
-        <v>7.729953479968723E-05</v>
+        <v>0.0985892403451234</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.809069</v>
+        <v>53.48524799999999</v>
       </c>
       <c r="H15">
-        <v>8.427206999999999</v>
+        <v>160.455744</v>
       </c>
       <c r="I15">
-        <v>0.003731252000144026</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="J15">
-        <v>0.003731252000144027</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1370,27 +1370,27 @@
         <v>1.06804</v>
       </c>
       <c r="O15">
-        <v>0.6259930967504086</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="P15">
-        <v>0.6259930967504087</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="Q15">
-        <v>1.000066018253333</v>
+        <v>19.04146142464</v>
       </c>
       <c r="R15">
-        <v>9.000594164279999</v>
+        <v>171.37315282176</v>
       </c>
       <c r="S15">
-        <v>0.002335737994326315</v>
+        <v>0.09300948956350259</v>
       </c>
       <c r="T15">
-        <v>0.002335737994326316</v>
+        <v>0.09300948956350259</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.809069</v>
+        <v>53.48524799999999</v>
       </c>
       <c r="H16">
-        <v>8.427206999999999</v>
+        <v>160.455744</v>
       </c>
       <c r="I16">
-        <v>0.003731252000144026</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="J16">
-        <v>0.003731252000144027</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,338 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.07918166666666666</v>
+        <v>0.06973866666666667</v>
       </c>
       <c r="N16">
-        <v>0.237545</v>
+        <v>0.209216</v>
       </c>
       <c r="O16">
-        <v>0.139228427931141</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="P16">
-        <v>0.139228427931141</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="Q16">
-        <v>0.2224267652016666</v>
+        <v>3.729989881856</v>
       </c>
       <c r="R16">
-        <v>2.001840886815</v>
+        <v>33.569908936704</v>
       </c>
       <c r="S16">
-        <v>0.0005194963501949782</v>
+        <v>0.01821942377487525</v>
       </c>
       <c r="T16">
-        <v>0.0005194963501949784</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2.809069</v>
-      </c>
-      <c r="H17">
-        <v>8.427206999999999</v>
-      </c>
-      <c r="I17">
-        <v>0.003731252000144026</v>
-      </c>
-      <c r="J17">
-        <v>0.003731252000144027</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.1217406666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.365222</v>
-      </c>
-      <c r="O17">
-        <v>0.2140616931775755</v>
-      </c>
-      <c r="P17">
-        <v>0.2140616931775755</v>
-      </c>
-      <c r="Q17">
-        <v>0.3419779327726666</v>
-      </c>
-      <c r="R17">
-        <v>3.077801394954</v>
-      </c>
-      <c r="S17">
-        <v>0.0007987181208230455</v>
-      </c>
-      <c r="T17">
-        <v>0.0007987181208230457</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>266.141622</v>
-      </c>
-      <c r="H18">
-        <v>798.4248660000001</v>
-      </c>
-      <c r="I18">
-        <v>0.3535126618139589</v>
-      </c>
-      <c r="J18">
-        <v>0.3535126618139589</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.011782</v>
-      </c>
-      <c r="N18">
-        <v>0.035346</v>
-      </c>
-      <c r="O18">
-        <v>0.02071678214087482</v>
-      </c>
-      <c r="P18">
-        <v>0.02071678214087482</v>
-      </c>
-      <c r="Q18">
-        <v>3.135680590404</v>
-      </c>
-      <c r="R18">
-        <v>28.221125313636</v>
-      </c>
-      <c r="S18">
-        <v>0.007323644798840543</v>
-      </c>
-      <c r="T18">
-        <v>0.007323644798840543</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>266.141622</v>
-      </c>
-      <c r="H19">
-        <v>798.4248660000001</v>
-      </c>
-      <c r="I19">
-        <v>0.3535126618139589</v>
-      </c>
-      <c r="J19">
-        <v>0.3535126618139589</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.3560133333333333</v>
-      </c>
-      <c r="N19">
-        <v>1.06804</v>
-      </c>
-      <c r="O19">
-        <v>0.6259930967504086</v>
-      </c>
-      <c r="P19">
-        <v>0.6259930967504087</v>
-      </c>
-      <c r="Q19">
-        <v>94.74996598696001</v>
-      </c>
-      <c r="R19">
-        <v>852.7496938826399</v>
-      </c>
-      <c r="S19">
-        <v>0.2212964859094</v>
-      </c>
-      <c r="T19">
-        <v>0.2212964859094</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>266.141622</v>
-      </c>
-      <c r="H20">
-        <v>798.4248660000001</v>
-      </c>
-      <c r="I20">
-        <v>0.3535126618139589</v>
-      </c>
-      <c r="J20">
-        <v>0.3535126618139589</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M20">
-        <v>0.07918166666666666</v>
-      </c>
-      <c r="N20">
-        <v>0.237545</v>
-      </c>
-      <c r="O20">
-        <v>0.139228427931141</v>
-      </c>
-      <c r="P20">
-        <v>0.139228427931141</v>
-      </c>
-      <c r="Q20">
-        <v>21.07353719933</v>
-      </c>
-      <c r="R20">
-        <v>189.66183479397</v>
-      </c>
-      <c r="S20">
-        <v>0.04921901215811059</v>
-      </c>
-      <c r="T20">
-        <v>0.04921901215811059</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>266.141622</v>
-      </c>
-      <c r="H21">
-        <v>798.4248660000001</v>
-      </c>
-      <c r="I21">
-        <v>0.3535126618139589</v>
-      </c>
-      <c r="J21">
-        <v>0.3535126618139589</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.1217406666666667</v>
-      </c>
-      <c r="N21">
-        <v>0.365222</v>
-      </c>
-      <c r="O21">
-        <v>0.2140616931775755</v>
-      </c>
-      <c r="P21">
-        <v>0.2140616931775755</v>
-      </c>
-      <c r="Q21">
-        <v>32.400258490028</v>
-      </c>
-      <c r="R21">
-        <v>291.602326410252</v>
-      </c>
-      <c r="S21">
-        <v>0.07567351894760768</v>
-      </c>
-      <c r="T21">
-        <v>0.07567351894760768</v>
+        <v>0.01821942377487525</v>
       </c>
     </row>
   </sheetData>
